--- a/Rechazados.xlsx
+++ b/Rechazados.xlsx
@@ -16,7 +16,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -56,11 +61,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -426,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:O1"/>
+  <dimension ref="A1:O143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,6 +513,7532 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ZURTIA JORGE RAMON </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>44104.32083333333</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>44104.66875</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ZURTIA JORGE RAMON </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>44105.31875</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>44105.66736111111</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="O3" s="3" t="n">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ZURTIA JORGE RAMON </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>44106</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>44106.31805555556</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>44106.66944444444</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="L4" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="M4" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="O4" s="3" t="n">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ZURTIA JORGE RAMON </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>44109</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>44109.33194444444</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="K5" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="M5" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="N5" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="O5" s="3" t="n">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBAÑEZ SEBASTIAN MATIAS </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>44104.31944444445</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>44104.79722222222</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="O6" s="3" t="n">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBAÑEZ SEBASTIAN MATIAS </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>44119</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>44119.3125</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>44119.75</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="L7" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="M7" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="N7" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="O7" s="3" t="n">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBAÑEZ SEBASTIAN MATIAS </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>44120</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>44120.31875</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>44120.71388888889</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="M8" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="O8" s="3" t="n">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>689</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROJAS RODRIGO </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>44104.33611111111</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="O9" s="3" t="n">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>690</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROJAS RODRIGO </t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>44109</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>44109.33194444444</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>44109.83680555555</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="M10" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="O10" s="3" t="n">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>691</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROJAS RODRIGO </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>44110</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>44110.32708333333</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>44110.67708333334</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="K11" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="N11" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="O11" s="3" t="n">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>774</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TALABERA LEANDRO </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>44109</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>44109.77777777778</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="J12" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="K12" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="L12" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="M12" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="N12" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="O12" s="3" t="n">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>775</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TALABERA LEANDRO </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>44110</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>44110.29375</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>44110.77291666667</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="J13" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="K13" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="L13" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="M13" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="N13" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="O13" s="3" t="n">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>776</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TALABERA LEANDRO </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>44111</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>44111.29305555556</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>44111.77222222222</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="J14" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="K14" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="L14" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="M14" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="N14" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="O14" s="3" t="n">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>777</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TALABERA LEANDRO </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>44112</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>44112.29375</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>44112.77361111111</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="K15" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="L15" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="M15" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="N15" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="O15" s="3" t="n">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>778</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TALABERA LEANDRO </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>44113</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>44113.29375</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>44113.77361111111</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="J16" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="K16" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="L16" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="M16" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="N16" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="O16" s="3" t="n">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>779</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TALABERA LEANDRO </t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>44114</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>44114.29722222222</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>44114</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>44114</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>44114</v>
+      </c>
+      <c r="J17" s="3" t="n">
+        <v>44114</v>
+      </c>
+      <c r="K17" s="3" t="n">
+        <v>44114</v>
+      </c>
+      <c r="L17" s="3" t="n">
+        <v>44114</v>
+      </c>
+      <c r="M17" s="3" t="n">
+        <v>44114</v>
+      </c>
+      <c r="N17" s="3" t="n">
+        <v>44114</v>
+      </c>
+      <c r="O17" s="3" t="n">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>780</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TALABERA LEANDRO </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>44117</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>44117.81666666667</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="J18" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="K18" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="L18" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="M18" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="N18" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="O18" s="3" t="n">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>781</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TALABERA LEANDRO </t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>44118</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>44118.33611111111</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>44118.82013888889</v>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="J19" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="K19" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="L19" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="M19" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="N19" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="O19" s="3" t="n">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>782</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TALABERA LEANDRO </t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>44119</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>44119.33402777778</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>44119.82777777778</v>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="J20" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="K20" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="L20" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="M20" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="N20" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="O20" s="3" t="n">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>783</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TALABERA LEANDRO </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>44120</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>44120.33541666667</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>44120.82083333333</v>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="J21" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="K21" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="L21" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="M21" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="N21" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="O21" s="3" t="n">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>784</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TALABERA LEANDRO </t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>44121</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>44121.33333333334</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="J22" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="K22" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="L22" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="M22" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="N22" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="O22" s="3" t="n">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>987</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PONCE LEONARDO GABRIEL </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>44104.33541666667</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>44104.99444444444</v>
+      </c>
+      <c r="H23" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="J23" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="K23" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="L23" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="M23" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="N23" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="O23" s="3" t="n">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>988</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PONCE LEONARDO GABRIEL </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>44105.33541666667</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>44105.82916666667</v>
+      </c>
+      <c r="H24" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="J24" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="K24" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="L24" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="M24" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="N24" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="O24" s="3" t="n">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>989</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PONCE LEONARDO GABRIEL </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>44106</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>44106.33541666667</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>44106.82986111111</v>
+      </c>
+      <c r="H25" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="J25" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="K25" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="L25" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="M25" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="N25" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="O25" s="3" t="n">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>990</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PONCE LEONARDO GABRIEL </t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>44107</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>44107.33611111111</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="H26" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="J26" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="K26" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="L26" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="M26" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="N26" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="O26" s="3" t="n">
+        <v>44107</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>991</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PONCE LEONARDO GABRIEL </t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>44109</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>44109.33055555556</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>44109.66944444444</v>
+      </c>
+      <c r="H27" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="J27" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="K27" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="L27" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="M27" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="N27" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="O27" s="3" t="n">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>992</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PONCE LEONARDO GABRIEL </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>44110</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>44110.32638888889</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>44110.83680555555</v>
+      </c>
+      <c r="H28" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="I28" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="J28" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="K28" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="L28" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="M28" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="N28" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="O28" s="3" t="n">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>993</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PONCE LEONARDO GABRIEL </t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>44111</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>44111.32777777778</v>
+      </c>
+      <c r="G29" s="3" t="n">
+        <v>44111.83541666667</v>
+      </c>
+      <c r="H29" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="J29" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="K29" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="L29" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="M29" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="N29" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="O29" s="3" t="n">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>994</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PONCE LEONARDO GABRIEL </t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>44112</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>44112.32708333333</v>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>44112.66944444444</v>
+      </c>
+      <c r="H30" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="J30" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="K30" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="L30" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="M30" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="N30" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="O30" s="3" t="n">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>1187</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GONZALEZ BRAIAN </t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>44104.3375</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>44104.99166666667</v>
+      </c>
+      <c r="H31" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="J31" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="K31" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="L31" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="M31" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="N31" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="O31" s="3" t="n">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>1188</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GONZALEZ BRAIAN </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>44105.33680555555</v>
+      </c>
+      <c r="G32" s="3" t="n">
+        <v>44105.99236111111</v>
+      </c>
+      <c r="H32" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="I32" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="J32" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="K32" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="L32" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="M32" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="N32" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="O32" s="3" t="n">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>1189</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GONZALEZ BRAIAN </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>44106</v>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>44106.33819444444</v>
+      </c>
+      <c r="G33" s="3" t="n">
+        <v>44106.99444444444</v>
+      </c>
+      <c r="H33" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="I33" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="J33" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="K33" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="L33" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="M33" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="N33" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="O33" s="3" t="n">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>1190</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GONZALEZ BRAIAN </t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>44107</v>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>44107.33680555555</v>
+      </c>
+      <c r="G34" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="H34" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="I34" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="J34" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="K34" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="L34" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="M34" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="N34" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="O34" s="3" t="n">
+        <v>44107</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>1191</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GONZALEZ BRAIAN </t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>44109</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>44109.32986111111</v>
+      </c>
+      <c r="G35" s="3" t="n">
+        <v>44109.67152777778</v>
+      </c>
+      <c r="H35" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="I35" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="J35" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="K35" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="L35" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="M35" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="N35" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="O35" s="3" t="n">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>1192</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>492</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GONZALEZ BRAIAN </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>44110</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>44110.32916666667</v>
+      </c>
+      <c r="G36" s="3" t="n">
+        <v>44110.36180555556</v>
+      </c>
+      <c r="H36" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="I36" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="J36" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="K36" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="L36" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="M36" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="N36" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="O36" s="3" t="n">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>1426</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BIANCOTTI OYOLA EDUARDO </t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>44104.32916666667</v>
+      </c>
+      <c r="G37" s="3" t="n">
+        <v>44104.66875</v>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="J37" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="K37" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="L37" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="M37" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="N37" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="O37" s="3" t="n">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>1427</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BIANCOTTI OYOLA EDUARDO </t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="F38" s="3" t="n">
+        <v>44105.33194444444</v>
+      </c>
+      <c r="G38" s="3" t="n">
+        <v>44105.67083333333</v>
+      </c>
+      <c r="H38" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="I38" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="J38" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="K38" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="L38" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="M38" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="N38" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="O38" s="3" t="n">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>1428</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BIANCOTTI OYOLA EDUARDO </t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>44106</v>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>44106.32291666666</v>
+      </c>
+      <c r="G39" s="3" t="n">
+        <v>44106.67916666667</v>
+      </c>
+      <c r="H39" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="I39" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="J39" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="K39" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="L39" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="M39" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="N39" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="O39" s="3" t="n">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>1429</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BIANCOTTI OYOLA EDUARDO </t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>44109</v>
+      </c>
+      <c r="F40" s="3" t="n">
+        <v>44109.33055555556</v>
+      </c>
+      <c r="G40" s="3" t="n">
+        <v>44109.67152777778</v>
+      </c>
+      <c r="H40" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="I40" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="J40" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="K40" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="L40" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="M40" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="N40" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="O40" s="3" t="n">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>1430</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BIANCOTTI OYOLA EDUARDO </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>44110</v>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>44110.32361111111</v>
+      </c>
+      <c r="G41" s="3" t="n">
+        <v>44110.67013888889</v>
+      </c>
+      <c r="H41" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="I41" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="J41" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="K41" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="L41" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="M41" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="N41" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="O41" s="3" t="n">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>1431</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BIANCOTTI OYOLA EDUARDO </t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>44111</v>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>44111.32777777778</v>
+      </c>
+      <c r="G42" s="3" t="n">
+        <v>44111.68055555555</v>
+      </c>
+      <c r="H42" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="I42" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="J42" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="K42" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="L42" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="M42" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="N42" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="O42" s="3" t="n">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>1432</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BIANCOTTI OYOLA EDUARDO </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>44112</v>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>44112.32986111111</v>
+      </c>
+      <c r="G43" s="3" t="n">
+        <v>44112.67083333333</v>
+      </c>
+      <c r="H43" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="I43" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="J43" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="K43" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="L43" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="M43" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="N43" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="O43" s="3" t="n">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>1433</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BIANCOTTI OYOLA EDUARDO </t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>44113</v>
+      </c>
+      <c r="F44" s="3" t="n">
+        <v>44113.33125</v>
+      </c>
+      <c r="G44" s="3" t="n">
+        <v>44113.67222222222</v>
+      </c>
+      <c r="H44" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="I44" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="J44" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="K44" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="L44" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="M44" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="N44" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="O44" s="3" t="n">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>1434</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BIANCOTTI OYOLA EDUARDO </t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>44117</v>
+      </c>
+      <c r="F45" s="3" t="n">
+        <v>44117.33125</v>
+      </c>
+      <c r="G45" s="3" t="n">
+        <v>44117.67083333333</v>
+      </c>
+      <c r="H45" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="I45" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="J45" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="K45" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="L45" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="M45" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="N45" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="O45" s="3" t="n">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>1435</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BIANCOTTI OYOLA EDUARDO </t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>44118</v>
+      </c>
+      <c r="F46" s="3" t="n">
+        <v>44118.33055555556</v>
+      </c>
+      <c r="G46" s="3" t="n">
+        <v>44118.67013888889</v>
+      </c>
+      <c r="H46" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="I46" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="J46" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="K46" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="L46" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="M46" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="N46" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="O46" s="3" t="n">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>1449</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PUGA FRANCO </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>44104.00486111111</v>
+      </c>
+      <c r="G47" s="3" t="n">
+        <v>44104.66319444445</v>
+      </c>
+      <c r="H47" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="I47" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="J47" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="K47" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="L47" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="M47" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="N47" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="O47" s="3" t="n">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>1450</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PUGA FRANCO </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="F48" s="3" t="n">
+        <v>44105.00416666667</v>
+      </c>
+      <c r="G48" s="3" t="n">
+        <v>44105.66319444445</v>
+      </c>
+      <c r="H48" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="I48" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="J48" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="K48" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="L48" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="M48" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="N48" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="O48" s="3" t="n">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>1451</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PUGA FRANCO </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>44106</v>
+      </c>
+      <c r="F49" s="3" t="n">
+        <v>44106.00416666667</v>
+      </c>
+      <c r="G49" s="3" t="n">
+        <v>44106.6625</v>
+      </c>
+      <c r="H49" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="I49" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="J49" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="K49" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="L49" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="M49" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="N49" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="O49" s="3" t="n">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>1452</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PUGA FRANCO </t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>44107</v>
+      </c>
+      <c r="F50" s="3" t="n">
+        <v>44107.00486111111</v>
+      </c>
+      <c r="G50" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="H50" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="I50" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="J50" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="K50" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="L50" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="M50" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="N50" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="O50" s="3" t="n">
+        <v>44107</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>1453</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PUGA FRANCO </t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>44109</v>
+      </c>
+      <c r="F51" s="3" t="n">
+        <v>44109.98958333334</v>
+      </c>
+      <c r="G51" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="H51" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="I51" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="J51" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="K51" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="L51" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="M51" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="N51" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="O51" s="3" t="n">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>1454</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PUGA FRANCO </t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>44110</v>
+      </c>
+      <c r="F52" s="3" t="n">
+        <v>44110.33888888889</v>
+      </c>
+      <c r="G52" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="H52" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="I52" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="J52" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="K52" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="L52" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="M52" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="N52" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="O52" s="3" t="n">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>1455</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PERALTA SERGIO </t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>44110</v>
+      </c>
+      <c r="F53" s="3" t="n">
+        <v>44110.73888888889</v>
+      </c>
+      <c r="G53" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="H53" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="I53" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="J53" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="K53" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="L53" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="M53" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="N53" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="O53" s="3" t="n">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>1456</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PERALTA SERGIO </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>44111</v>
+      </c>
+      <c r="F54" s="3" t="n">
+        <v>44111.16875</v>
+      </c>
+      <c r="G54" s="3" t="n">
+        <v>44111.74166666667</v>
+      </c>
+      <c r="H54" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="I54" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="J54" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="K54" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="L54" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="M54" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="N54" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="O54" s="3" t="n">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>1457</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PERALTA SERGIO </t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>44112</v>
+      </c>
+      <c r="F55" s="3" t="n">
+        <v>44112.16944444444</v>
+      </c>
+      <c r="G55" s="3" t="n">
+        <v>44112.73888888889</v>
+      </c>
+      <c r="H55" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="I55" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="J55" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="K55" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="L55" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="M55" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="N55" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="O55" s="3" t="n">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>1458</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PERALTA SERGIO </t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>44113</v>
+      </c>
+      <c r="F56" s="3" t="n">
+        <v>44113.16805555556</v>
+      </c>
+      <c r="G56" s="3" t="n">
+        <v>44113.73958333334</v>
+      </c>
+      <c r="H56" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="I56" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="J56" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="K56" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="L56" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="M56" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="N56" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="O56" s="3" t="n">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>1459</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PERALTA SERGIO </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>44114</v>
+      </c>
+      <c r="F57" s="3" t="n">
+        <v>44114.16805555556</v>
+      </c>
+      <c r="G57" s="3" t="n">
+        <v>44114</v>
+      </c>
+      <c r="H57" s="3" t="n">
+        <v>44114</v>
+      </c>
+      <c r="I57" s="3" t="n">
+        <v>44114</v>
+      </c>
+      <c r="J57" s="3" t="n">
+        <v>44114</v>
+      </c>
+      <c r="K57" s="3" t="n">
+        <v>44114</v>
+      </c>
+      <c r="L57" s="3" t="n">
+        <v>44114</v>
+      </c>
+      <c r="M57" s="3" t="n">
+        <v>44114</v>
+      </c>
+      <c r="N57" s="3" t="n">
+        <v>44114</v>
+      </c>
+      <c r="O57" s="3" t="n">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>1460</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PERALTA SERGIO </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>44117</v>
+      </c>
+      <c r="F58" s="3" t="n">
+        <v>44117.32222222222</v>
+      </c>
+      <c r="G58" s="3" t="n">
+        <v>44117.67083333333</v>
+      </c>
+      <c r="H58" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="I58" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="J58" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="K58" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="L58" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="M58" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="N58" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="O58" s="3" t="n">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>1461</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PERALTA SERGIO </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>44118</v>
+      </c>
+      <c r="F59" s="3" t="n">
+        <v>44118.23958333334</v>
+      </c>
+      <c r="G59" s="3" t="n">
+        <v>44118.75</v>
+      </c>
+      <c r="H59" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="I59" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="J59" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="K59" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="L59" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="M59" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="N59" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="O59" s="3" t="n">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>1462</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PERALTA SERGIO </t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>44119</v>
+      </c>
+      <c r="F60" s="3" t="n">
+        <v>44119.32013888889</v>
+      </c>
+      <c r="G60" s="3" t="n">
+        <v>44119.75</v>
+      </c>
+      <c r="H60" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="I60" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="J60" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="K60" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="L60" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="M60" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="N60" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="O60" s="3" t="n">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>1463</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PERALTA SERGIO </t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>44120</v>
+      </c>
+      <c r="F61" s="3" t="n">
+        <v>44120.32083333333</v>
+      </c>
+      <c r="G61" s="3" t="n">
+        <v>44120.75138888889</v>
+      </c>
+      <c r="H61" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="I61" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="J61" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="K61" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="L61" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="M61" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="N61" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="O61" s="3" t="n">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>1464</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PERALTA SERGIO </t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>44121</v>
+      </c>
+      <c r="F62" s="3" t="n">
+        <v>44121.32083333333</v>
+      </c>
+      <c r="G62" s="3" t="n">
+        <v>44121.54166666666</v>
+      </c>
+      <c r="H62" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="I62" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="J62" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="K62" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="L62" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="M62" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="N62" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="O62" s="3" t="n">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>1553</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAMINO LUIS ALBERTO </t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>44109</v>
+      </c>
+      <c r="F63" s="3" t="n">
+        <v>44109.99097222222</v>
+      </c>
+      <c r="G63" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="H63" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="I63" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="J63" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="K63" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="L63" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="M63" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="N63" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="O63" s="3" t="n">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>1554</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAMINO LUIS ALBERTO </t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>44110</v>
+      </c>
+      <c r="F64" s="3" t="n">
+        <v>44110.34652777778</v>
+      </c>
+      <c r="G64" s="3" t="n">
+        <v>44110.99375</v>
+      </c>
+      <c r="H64" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="I64" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="J64" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="K64" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="L64" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="M64" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="N64" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="O64" s="3" t="n">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>1555</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAMINO LUIS ALBERTO </t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>44111</v>
+      </c>
+      <c r="F65" s="3" t="n">
+        <v>44111.33958333333</v>
+      </c>
+      <c r="G65" s="3" t="n">
+        <v>44111.99791666667</v>
+      </c>
+      <c r="H65" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="I65" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="J65" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="K65" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="L65" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="M65" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="N65" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="O65" s="3" t="n">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>1556</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAMINO LUIS ALBERTO </t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>44112</v>
+      </c>
+      <c r="F66" s="3" t="n">
+        <v>44112.34236111111</v>
+      </c>
+      <c r="G66" s="3" t="n">
+        <v>44112.99513888889</v>
+      </c>
+      <c r="H66" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="I66" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="J66" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="K66" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="L66" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="M66" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="N66" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="O66" s="3" t="n">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>1557</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAMINO LUIS ALBERTO </t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>44113</v>
+      </c>
+      <c r="F67" s="3" t="n">
+        <v>44113.34861111111</v>
+      </c>
+      <c r="G67" s="3" t="n">
+        <v>44113.99166666667</v>
+      </c>
+      <c r="H67" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="I67" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="J67" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="K67" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="L67" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="M67" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="N67" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="O67" s="3" t="n">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>1558</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAMINO LUIS ALBERTO </t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>44114</v>
+      </c>
+      <c r="F68" s="3" t="n">
+        <v>44114.34027777778</v>
+      </c>
+      <c r="G68" s="3" t="n">
+        <v>44114</v>
+      </c>
+      <c r="H68" s="3" t="n">
+        <v>44114</v>
+      </c>
+      <c r="I68" s="3" t="n">
+        <v>44114</v>
+      </c>
+      <c r="J68" s="3" t="n">
+        <v>44114</v>
+      </c>
+      <c r="K68" s="3" t="n">
+        <v>44114</v>
+      </c>
+      <c r="L68" s="3" t="n">
+        <v>44114</v>
+      </c>
+      <c r="M68" s="3" t="n">
+        <v>44114</v>
+      </c>
+      <c r="N68" s="3" t="n">
+        <v>44114</v>
+      </c>
+      <c r="O68" s="3" t="n">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>1559</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAMINO LUIS ALBERTO </t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>44117</v>
+      </c>
+      <c r="F69" s="3" t="n">
+        <v>44117.32916666667</v>
+      </c>
+      <c r="G69" s="3" t="n">
+        <v>44117.68402777778</v>
+      </c>
+      <c r="H69" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="I69" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="J69" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="K69" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="L69" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="M69" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="N69" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="O69" s="3" t="n">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>1560</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAMINO LUIS ALBERTO </t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>44118</v>
+      </c>
+      <c r="F70" s="3" t="n">
+        <v>44118.32847222222</v>
+      </c>
+      <c r="G70" s="3" t="n">
+        <v>44118.68055555555</v>
+      </c>
+      <c r="H70" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="I70" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="J70" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="K70" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="L70" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="M70" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="N70" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="O70" s="3" t="n">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>1561</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAMINO LUIS ALBERTO </t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>44119</v>
+      </c>
+      <c r="F71" s="3" t="n">
+        <v>44119.32638888889</v>
+      </c>
+      <c r="G71" s="3" t="n">
+        <v>44119.67847222222</v>
+      </c>
+      <c r="H71" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="I71" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="J71" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="K71" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="L71" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="M71" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="N71" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="O71" s="3" t="n">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>1562</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAMINO LUIS ALBERTO </t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>44120</v>
+      </c>
+      <c r="F72" s="3" t="n">
+        <v>44120.325</v>
+      </c>
+      <c r="G72" s="3" t="n">
+        <v>44120.67708333334</v>
+      </c>
+      <c r="H72" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="I72" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="J72" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="K72" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="L72" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="M72" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="N72" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="O72" s="3" t="n">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>1563</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CAMINO LUIS ALBERTO </t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>44121</v>
+      </c>
+      <c r="F73" s="3" t="n">
+        <v>44121.32222222222</v>
+      </c>
+      <c r="G73" s="3" t="n">
+        <v>44121.66666666666</v>
+      </c>
+      <c r="H73" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="I73" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="J73" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="K73" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="L73" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="M73" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="N73" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="O73" s="3" t="n">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>1603</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MARTINO RODRIGO AMTEO </t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="F74" s="3" t="n">
+        <v>44104.32361111111</v>
+      </c>
+      <c r="G74" s="3" t="n">
+        <v>44104.67013888889</v>
+      </c>
+      <c r="H74" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="I74" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="J74" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="K74" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="L74" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="M74" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="N74" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="O74" s="3" t="n">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>1604</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MARTINO RODRIGO AMTEO </t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="F75" s="3" t="n">
+        <v>44105.32569444444</v>
+      </c>
+      <c r="G75" s="3" t="n">
+        <v>44105.67152777778</v>
+      </c>
+      <c r="H75" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="I75" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="J75" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="K75" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="L75" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="M75" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="N75" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="O75" s="3" t="n">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>1605</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MARTINO RODRIGO AMTEO </t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>44106</v>
+      </c>
+      <c r="F76" s="3" t="n">
+        <v>44106.32569444444</v>
+      </c>
+      <c r="G76" s="3" t="n">
+        <v>44106.66875</v>
+      </c>
+      <c r="H76" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="I76" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="J76" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="K76" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="L76" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="M76" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="N76" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="O76" s="3" t="n">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>1606</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>567</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROBLES SOLANO DANTE DANIEL </t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="F77" s="3" t="n">
+        <v>44104.33541666667</v>
+      </c>
+      <c r="G77" s="3" t="n">
+        <v>44104.82222222222</v>
+      </c>
+      <c r="H77" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="I77" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="J77" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="K77" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="L77" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="M77" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="N77" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="O77" s="3" t="n">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>1607</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>567</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROBLES SOLANO DANTE DANIEL </t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="F78" s="3" t="n">
+        <v>44105.25347222222</v>
+      </c>
+      <c r="G78" s="3" t="n">
+        <v>44105.81111111111</v>
+      </c>
+      <c r="H78" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="I78" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="J78" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="K78" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="L78" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="M78" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="N78" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="O78" s="3" t="n">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>1608</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>567</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROBLES SOLANO DANTE DANIEL </t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>44106</v>
+      </c>
+      <c r="F79" s="3" t="n">
+        <v>44106.3375</v>
+      </c>
+      <c r="G79" s="3" t="n">
+        <v>44106.8125</v>
+      </c>
+      <c r="H79" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="I79" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="J79" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="K79" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="L79" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="M79" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="N79" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="O79" s="3" t="n">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>1609</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>567</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROBLES SOLANO DANTE DANIEL </t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>44107</v>
+      </c>
+      <c r="F80" s="3" t="n">
+        <v>44107.33680555555</v>
+      </c>
+      <c r="G80" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="H80" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="I80" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="J80" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="K80" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="L80" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="M80" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="N80" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="O80" s="3" t="n">
+        <v>44107</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>1610</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>567</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROBLES SOLANO DANTE DANIEL </t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>44109</v>
+      </c>
+      <c r="F81" s="3" t="n">
+        <v>44109.32986111111</v>
+      </c>
+      <c r="G81" s="3" t="n">
+        <v>44109.83680555555</v>
+      </c>
+      <c r="H81" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="I81" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="J81" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="K81" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="L81" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="M81" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="N81" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="O81" s="3" t="n">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>1611</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>567</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROBLES SOLANO DANTE DANIEL </t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>44110</v>
+      </c>
+      <c r="F82" s="3" t="n">
+        <v>44110.32708333333</v>
+      </c>
+      <c r="G82" s="3" t="n">
+        <v>44110.83888888889</v>
+      </c>
+      <c r="H82" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="I82" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="J82" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="K82" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="L82" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="M82" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="N82" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="O82" s="3" t="n">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>1612</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>567</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROBLES SOLANO DANTE DANIEL </t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>44111</v>
+      </c>
+      <c r="F83" s="3" t="n">
+        <v>44111.31875</v>
+      </c>
+      <c r="G83" s="3" t="n">
+        <v>44111.83680555555</v>
+      </c>
+      <c r="H83" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="I83" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="J83" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="K83" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="L83" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="M83" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="N83" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="O83" s="3" t="n">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>1613</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>567</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROBLES SOLANO DANTE DANIEL </t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>44112</v>
+      </c>
+      <c r="F84" s="3" t="n">
+        <v>44112.32152777778</v>
+      </c>
+      <c r="G84" s="3" t="n">
+        <v>44112.79583333333</v>
+      </c>
+      <c r="H84" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="I84" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="J84" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="K84" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="L84" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="M84" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="N84" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="O84" s="3" t="n">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>1614</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>567</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROBLES SOLANO DANTE DANIEL </t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>44113</v>
+      </c>
+      <c r="F85" s="3" t="n">
+        <v>44113.32291666666</v>
+      </c>
+      <c r="G85" s="3" t="n">
+        <v>44113.67152777778</v>
+      </c>
+      <c r="H85" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="I85" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="J85" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="K85" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="L85" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="M85" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="N85" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="O85" s="3" t="n">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>1669</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROJAS SEBASTIAN ARIEL ES </t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="F86" s="3" t="n">
+        <v>44104.9875</v>
+      </c>
+      <c r="G86" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="H86" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="I86" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="J86" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="K86" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="L86" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="M86" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="N86" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="O86" s="3" t="n">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>1670</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROJAS SEBASTIAN ARIEL ES </t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="F87" s="3" t="n">
+        <v>44105.33958333333</v>
+      </c>
+      <c r="G87" s="3" t="n">
+        <v>44105.99097222222</v>
+      </c>
+      <c r="H87" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="I87" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="J87" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="K87" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="L87" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="M87" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="N87" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="O87" s="3" t="n">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>1671</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROJAS SEBASTIAN ARIEL ES </t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>44106</v>
+      </c>
+      <c r="F88" s="3" t="n">
+        <v>44106.33680555555</v>
+      </c>
+      <c r="G88" s="3" t="n">
+        <v>44106.98819444444</v>
+      </c>
+      <c r="H88" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="I88" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="J88" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="K88" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="L88" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="M88" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="N88" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="O88" s="3" t="n">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>1672</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROJAS SEBASTIAN ARIEL ES </t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>44107</v>
+      </c>
+      <c r="F89" s="3" t="n">
+        <v>44107.33819444444</v>
+      </c>
+      <c r="G89" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="H89" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="I89" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="J89" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="K89" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="L89" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="M89" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="N89" s="3" t="n">
+        <v>44107</v>
+      </c>
+      <c r="O89" s="3" t="n">
+        <v>44107</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>1673</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROJAS SEBASTIAN ARIEL ES </t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>44109</v>
+      </c>
+      <c r="F90" s="3" t="n">
+        <v>44109.32916666667</v>
+      </c>
+      <c r="G90" s="3" t="n">
+        <v>44109.67083333333</v>
+      </c>
+      <c r="H90" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="I90" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="J90" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="K90" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="L90" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="M90" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="N90" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="O90" s="3" t="n">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>1674</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROJAS SEBASTIAN ARIEL ES </t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>44110</v>
+      </c>
+      <c r="F91" s="3" t="n">
+        <v>44110.32291666666</v>
+      </c>
+      <c r="G91" s="3" t="n">
+        <v>44110.67777777778</v>
+      </c>
+      <c r="H91" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="I91" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="J91" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="K91" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="L91" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="M91" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="N91" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="O91" s="3" t="n">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>1675</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROJAS SEBASTIAN ARIEL ES </t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>44111</v>
+      </c>
+      <c r="F92" s="3" t="n">
+        <v>44111.32847222222</v>
+      </c>
+      <c r="G92" s="3" t="n">
+        <v>44111.67222222222</v>
+      </c>
+      <c r="H92" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="I92" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="J92" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="K92" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="L92" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="M92" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="N92" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="O92" s="3" t="n">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>1676</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ROJAS SEBASTIAN ARIEL ES </t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>44112</v>
+      </c>
+      <c r="F93" s="3" t="n">
+        <v>44112.32708333333</v>
+      </c>
+      <c r="G93" s="3" t="n">
+        <v>44112.44444444445</v>
+      </c>
+      <c r="H93" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="I93" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="J93" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="K93" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="L93" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="M93" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="N93" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="O93" s="3" t="n">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>1733</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CORTEZ NAHUEL ENRIQUE </t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="F94" s="3" t="n">
+        <v>44104.00347222222</v>
+      </c>
+      <c r="G94" s="3" t="n">
+        <v>44104.32430555556</v>
+      </c>
+      <c r="H94" s="3" t="n">
+        <v>44104.83680555555</v>
+      </c>
+      <c r="I94" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="J94" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="K94" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="L94" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="M94" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="N94" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="O94" s="3" t="n">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>1734</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CORTEZ NAHUEL ENRIQUE </t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="F95" s="3" t="n">
+        <v>44105.32638888889</v>
+      </c>
+      <c r="G95" s="3" t="n">
+        <v>44105.83958333333</v>
+      </c>
+      <c r="H95" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="I95" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="J95" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="K95" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="L95" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="M95" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="N95" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="O95" s="3" t="n">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>1735</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CORTEZ NAHUEL ENRIQUE </t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>44106</v>
+      </c>
+      <c r="F96" s="3" t="n">
+        <v>44106.32291666666</v>
+      </c>
+      <c r="G96" s="3" t="n">
+        <v>44106.8375</v>
+      </c>
+      <c r="H96" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="I96" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="J96" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="K96" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="L96" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="M96" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="N96" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="O96" s="3" t="n">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>1736</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CORTEZ NAHUEL ENRIQUE </t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>44109</v>
+      </c>
+      <c r="F97" s="3" t="n">
+        <v>44109.83055555556</v>
+      </c>
+      <c r="G97" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="H97" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="I97" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="J97" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="K97" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="L97" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="M97" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="N97" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="O97" s="3" t="n">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>1737</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CORTEZ NAHUEL ENRIQUE </t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>44110</v>
+      </c>
+      <c r="F98" s="3" t="n">
+        <v>44110.34236111111</v>
+      </c>
+      <c r="G98" s="3" t="n">
+        <v>44110.83263888889</v>
+      </c>
+      <c r="H98" s="3" t="n">
+        <v>44110.89305555556</v>
+      </c>
+      <c r="I98" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="J98" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="K98" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="L98" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="M98" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="N98" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="O98" s="3" t="n">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>1738</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MERCADAL JUAN GABRIEL CONSULT </t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="F99" s="3" t="n">
+        <v>44104.32430555556</v>
+      </c>
+      <c r="G99" s="3" t="n">
+        <v>44104.84236111111</v>
+      </c>
+      <c r="H99" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="I99" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="J99" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="K99" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="L99" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="M99" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="N99" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="O99" s="3" t="n">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>1739</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MERCADAL JUAN GABRIEL CONSULT </t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="F100" s="3" t="n">
+        <v>44105.32777777778</v>
+      </c>
+      <c r="G100" s="3" t="n">
+        <v>44105.83819444444</v>
+      </c>
+      <c r="H100" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="I100" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="J100" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="K100" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="L100" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="M100" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="N100" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="O100" s="3" t="n">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>1740</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MERCADAL JUAN GABRIEL CONSULT </t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>44106</v>
+      </c>
+      <c r="F101" s="3" t="n">
+        <v>44106.32916666667</v>
+      </c>
+      <c r="G101" s="3" t="n">
+        <v>44106.83888888889</v>
+      </c>
+      <c r="H101" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="I101" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="J101" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="K101" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="L101" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="M101" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="N101" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="O101" s="3" t="n">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>1741</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MERCADAL JUAN GABRIEL CONSULT </t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>44109</v>
+      </c>
+      <c r="F102" s="3" t="n">
+        <v>44109.81388888889</v>
+      </c>
+      <c r="G102" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="H102" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="I102" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="J102" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="K102" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="L102" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="M102" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="N102" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="O102" s="3" t="n">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>1742</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MERCADAL JUAN GABRIEL CONSULT </t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>44110</v>
+      </c>
+      <c r="F103" s="3" t="n">
+        <v>44110.00347222222</v>
+      </c>
+      <c r="G103" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="H103" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="I103" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="J103" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="K103" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="L103" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="M103" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="N103" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="O103" s="3" t="n">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>1830</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LUIS MUÑOZ MUNDO ES </t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="F104" s="3" t="n">
+        <v>44104.32430555556</v>
+      </c>
+      <c r="G104" s="3" t="n">
+        <v>44104.66944444444</v>
+      </c>
+      <c r="H104" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="I104" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="J104" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="K104" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="L104" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="M104" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="N104" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="O104" s="3" t="n">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>1831</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LUIS MUÑOZ MUNDO ES </t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="F105" s="3" t="n">
+        <v>44105.32777777778</v>
+      </c>
+      <c r="G105" s="3" t="n">
+        <v>44105.67916666667</v>
+      </c>
+      <c r="H105" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="I105" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="J105" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="K105" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="L105" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="M105" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="N105" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="O105" s="3" t="n">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>1832</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LUIS MUÑOZ MUNDO ES </t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>44106</v>
+      </c>
+      <c r="F106" s="3" t="n">
+        <v>44106.32986111111</v>
+      </c>
+      <c r="G106" s="3" t="n">
+        <v>44106.67430555556</v>
+      </c>
+      <c r="H106" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="I106" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="J106" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="K106" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="L106" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="M106" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="N106" s="3" t="n">
+        <v>44106</v>
+      </c>
+      <c r="O106" s="3" t="n">
+        <v>44106</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>1833</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LUIS MUÑOZ MUNDO ES </t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>44109</v>
+      </c>
+      <c r="F107" s="3" t="n">
+        <v>44109.65416666667</v>
+      </c>
+      <c r="G107" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="H107" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="I107" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="J107" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="K107" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="L107" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="M107" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="N107" s="3" t="n">
+        <v>44109</v>
+      </c>
+      <c r="O107" s="3" t="n">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>1834</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LUIS MUÑOZ MUNDO ES </t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>44110</v>
+      </c>
+      <c r="F108" s="3" t="n">
+        <v>44110.00625</v>
+      </c>
+      <c r="G108" s="3" t="n">
+        <v>44110.65902777778</v>
+      </c>
+      <c r="H108" s="3" t="n">
+        <v>44110.76458333333</v>
+      </c>
+      <c r="I108" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="J108" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="K108" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="L108" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="M108" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="N108" s="3" t="n">
+        <v>44110</v>
+      </c>
+      <c r="O108" s="3" t="n">
+        <v>44110</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>1835</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LUIS MUÑOZ MUNDO ES </t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>44117</v>
+      </c>
+      <c r="F109" s="3" t="n">
+        <v>44117.98958333334</v>
+      </c>
+      <c r="G109" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="H109" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="I109" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="J109" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="K109" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="L109" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="M109" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="N109" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="O109" s="3" t="n">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>1836</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LUIS MUÑOZ MUNDO ES </t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>44118</v>
+      </c>
+      <c r="F110" s="3" t="n">
+        <v>44118.34166666667</v>
+      </c>
+      <c r="G110" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="H110" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="I110" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="J110" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="K110" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="L110" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="M110" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="N110" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="O110" s="3" t="n">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>2335</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BAIGORRIA </t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="F111" s="3" t="n">
+        <v>44104.3375</v>
+      </c>
+      <c r="G111" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="H111" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="I111" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="J111" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="K111" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="L111" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="M111" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="N111" s="3" t="n">
+        <v>44104</v>
+      </c>
+      <c r="O111" s="3" t="n">
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>2336</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BAIGORRIA </t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>44118</v>
+      </c>
+      <c r="F112" s="3" t="n">
+        <v>44118.98055555556</v>
+      </c>
+      <c r="G112" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="H112" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="I112" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="J112" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="K112" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="L112" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="M112" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="N112" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="O112" s="3" t="n">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>2337</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BAIGORRIA </t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>44119</v>
+      </c>
+      <c r="F113" s="3" t="n">
+        <v>44119.33611111111</v>
+      </c>
+      <c r="G113" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="H113" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="I113" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="J113" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="K113" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="L113" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="M113" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="N113" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="O113" s="3" t="n">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>2338</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BAIGORRIA </t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>44120</v>
+      </c>
+      <c r="F114" s="3" t="n">
+        <v>44120.97291666667</v>
+      </c>
+      <c r="G114" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="H114" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="I114" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="J114" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="K114" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="L114" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="M114" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="N114" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="O114" s="3" t="n">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>2339</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BAIGORRIA </t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>44121</v>
+      </c>
+      <c r="F115" s="3" t="n">
+        <v>44121.33541666667</v>
+      </c>
+      <c r="G115" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="H115" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="I115" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="J115" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="K115" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="L115" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="M115" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="N115" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="O115" s="3" t="n">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>2798</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>694</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AMAYA GERARDO ES </t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>44111</v>
+      </c>
+      <c r="F116" s="3" t="n">
+        <v>44111.37291666667</v>
+      </c>
+      <c r="G116" s="3" t="n">
+        <v>44111.67291666667</v>
+      </c>
+      <c r="H116" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="I116" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="J116" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="K116" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="L116" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="M116" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="N116" s="3" t="n">
+        <v>44111</v>
+      </c>
+      <c r="O116" s="3" t="n">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>2799</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>694</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AMAYA GERARDO ES </t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>44112</v>
+      </c>
+      <c r="F117" s="3" t="n">
+        <v>44112.32916666667</v>
+      </c>
+      <c r="G117" s="3" t="n">
+        <v>44112.67013888889</v>
+      </c>
+      <c r="H117" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="I117" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="J117" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="K117" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="L117" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="M117" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="N117" s="3" t="n">
+        <v>44112</v>
+      </c>
+      <c r="O117" s="3" t="n">
+        <v>44112</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>694</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AMAYA GERARDO ES </t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>44113</v>
+      </c>
+      <c r="F118" s="3" t="n">
+        <v>44113.325</v>
+      </c>
+      <c r="G118" s="3" t="n">
+        <v>44113.675</v>
+      </c>
+      <c r="H118" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="I118" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="J118" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="K118" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="L118" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="M118" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="N118" s="3" t="n">
+        <v>44113</v>
+      </c>
+      <c r="O118" s="3" t="n">
+        <v>44113</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>2801</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>694</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AMAYA GERARDO ES </t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>44114</v>
+      </c>
+      <c r="F119" s="3" t="n">
+        <v>44114.32638888889</v>
+      </c>
+      <c r="G119" s="3" t="n">
+        <v>44114.66944444444</v>
+      </c>
+      <c r="H119" s="3" t="n">
+        <v>44114</v>
+      </c>
+      <c r="I119" s="3" t="n">
+        <v>44114</v>
+      </c>
+      <c r="J119" s="3" t="n">
+        <v>44114</v>
+      </c>
+      <c r="K119" s="3" t="n">
+        <v>44114</v>
+      </c>
+      <c r="L119" s="3" t="n">
+        <v>44114</v>
+      </c>
+      <c r="M119" s="3" t="n">
+        <v>44114</v>
+      </c>
+      <c r="N119" s="3" t="n">
+        <v>44114</v>
+      </c>
+      <c r="O119" s="3" t="n">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>2802</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>694</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AMAYA GERARDO ES </t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>44117</v>
+      </c>
+      <c r="F120" s="3" t="n">
+        <v>44117.65902777778</v>
+      </c>
+      <c r="G120" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="H120" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="I120" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="J120" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="K120" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="L120" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="M120" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="N120" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="O120" s="3" t="n">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>2803</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>694</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AMAYA GERARDO ES </t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>44118</v>
+      </c>
+      <c r="F121" s="3" t="n">
+        <v>44118.65555555555</v>
+      </c>
+      <c r="G121" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="H121" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="I121" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="J121" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="K121" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="L121" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="M121" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="N121" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="O121" s="3" t="n">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>2804</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>694</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AMAYA GERARDO ES </t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>44119</v>
+      </c>
+      <c r="F122" s="3" t="n">
+        <v>44119.00277777778</v>
+      </c>
+      <c r="G122" s="3" t="n">
+        <v>44119.65347222222</v>
+      </c>
+      <c r="H122" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="I122" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="J122" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="K122" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="L122" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="M122" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="N122" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="O122" s="3" t="n">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>2805</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>694</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AMAYA GERARDO ES </t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>44120</v>
+      </c>
+      <c r="F123" s="3" t="n">
+        <v>44120.00486111111</v>
+      </c>
+      <c r="G123" s="3" t="n">
+        <v>44120.65902777778</v>
+      </c>
+      <c r="H123" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="I123" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="J123" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="K123" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="L123" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="M123" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="N123" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="O123" s="3" t="n">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>2806</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>694</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AMAYA GERARDO ES </t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>44121</v>
+      </c>
+      <c r="F124" s="3" t="n">
+        <v>44121.00486111111</v>
+      </c>
+      <c r="G124" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="H124" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="I124" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="J124" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="K124" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="L124" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="M124" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="N124" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="O124" s="3" t="n">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>2820</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>697</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SILVESTRI MAXIMILIANO JORGE ES </t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>44117</v>
+      </c>
+      <c r="F125" s="3" t="n">
+        <v>44117.38541666666</v>
+      </c>
+      <c r="G125" s="3" t="n">
+        <v>44117.68333333333</v>
+      </c>
+      <c r="H125" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="I125" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="J125" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="K125" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="L125" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="M125" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="N125" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="O125" s="3" t="n">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>2821</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>697</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SILVESTRI MAXIMILIANO JORGE ES </t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>44118</v>
+      </c>
+      <c r="F126" s="3" t="n">
+        <v>44118.97291666667</v>
+      </c>
+      <c r="G126" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="H126" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="I126" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="J126" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="K126" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="L126" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="M126" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="N126" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="O126" s="3" t="n">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>2822</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>697</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SILVESTRI MAXIMILIANO JORGE ES </t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>44119</v>
+      </c>
+      <c r="F127" s="3" t="n">
+        <v>44119.33819444444</v>
+      </c>
+      <c r="G127" s="3" t="n">
+        <v>44119.97847222222</v>
+      </c>
+      <c r="H127" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="I127" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="J127" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="K127" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="L127" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="M127" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="N127" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="O127" s="3" t="n">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>2823</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>697</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SILVESTRI MAXIMILIANO JORGE ES </t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>44120</v>
+      </c>
+      <c r="F128" s="3" t="n">
+        <v>44120.33333333334</v>
+      </c>
+      <c r="G128" s="3" t="n">
+        <v>44120.97777777778</v>
+      </c>
+      <c r="H128" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="I128" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="J128" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="K128" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="L128" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="M128" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="N128" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="O128" s="3" t="n">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>2824</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>697</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SILVESTRI MAXIMILIANO JORGE ES </t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>44121</v>
+      </c>
+      <c r="F129" s="3" t="n">
+        <v>44121.33888888889</v>
+      </c>
+      <c r="G129" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="H129" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="I129" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="J129" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="K129" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="L129" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="M129" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="N129" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="O129" s="3" t="n">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>2825</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>698</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LUDUEÑA ARIEL JORGE ES </t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>44117</v>
+      </c>
+      <c r="F130" s="3" t="n">
+        <v>44117.38611111111</v>
+      </c>
+      <c r="G130" s="3" t="n">
+        <v>44117.67013888889</v>
+      </c>
+      <c r="H130" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="I130" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="J130" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="K130" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="L130" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="M130" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="N130" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="O130" s="3" t="n">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>2826</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>698</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LUDUEÑA ARIEL JORGE ES </t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>44118</v>
+      </c>
+      <c r="F131" s="3" t="n">
+        <v>44118.32708333333</v>
+      </c>
+      <c r="G131" s="3" t="n">
+        <v>44118.66597222222</v>
+      </c>
+      <c r="H131" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="I131" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="J131" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="K131" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="L131" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="M131" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="N131" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="O131" s="3" t="n">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>2827</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>698</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LUDUEÑA ARIEL JORGE ES </t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>44119</v>
+      </c>
+      <c r="F132" s="3" t="n">
+        <v>44119.32569444444</v>
+      </c>
+      <c r="G132" s="3" t="n">
+        <v>44119.66944444444</v>
+      </c>
+      <c r="H132" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="I132" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="J132" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="K132" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="L132" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="M132" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="N132" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="O132" s="3" t="n">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>2828</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>698</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LUDUEÑA ARIEL JORGE ES </t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>44120</v>
+      </c>
+      <c r="F133" s="3" t="n">
+        <v>44120.325</v>
+      </c>
+      <c r="G133" s="3" t="n">
+        <v>44120.66875</v>
+      </c>
+      <c r="H133" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="I133" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="J133" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="K133" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="L133" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="M133" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="N133" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="O133" s="3" t="n">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>2829</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIJARRA VICTOR DAVID ES </t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>44117</v>
+      </c>
+      <c r="F134" s="3" t="n">
+        <v>44117.38402777778</v>
+      </c>
+      <c r="G134" s="3" t="n">
+        <v>44117.66944444444</v>
+      </c>
+      <c r="H134" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="I134" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="J134" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="K134" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="L134" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="M134" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="N134" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="O134" s="3" t="n">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>2830</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIJARRA VICTOR DAVID ES </t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>44118</v>
+      </c>
+      <c r="F135" s="3" t="n">
+        <v>44118.33333333334</v>
+      </c>
+      <c r="G135" s="3" t="n">
+        <v>44118.66736111111</v>
+      </c>
+      <c r="H135" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="I135" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="J135" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="K135" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="L135" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="M135" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="N135" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="O135" s="3" t="n">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>2831</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIJARRA VICTOR DAVID ES </t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>44119</v>
+      </c>
+      <c r="F136" s="3" t="n">
+        <v>44119.32569444444</v>
+      </c>
+      <c r="G136" s="3" t="n">
+        <v>44119.66736111111</v>
+      </c>
+      <c r="H136" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="I136" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="J136" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="K136" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="L136" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="M136" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="N136" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="O136" s="3" t="n">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>2832</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIJARRA VICTOR DAVID ES </t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>44120</v>
+      </c>
+      <c r="F137" s="3" t="n">
+        <v>44120.32916666667</v>
+      </c>
+      <c r="G137" s="3" t="n">
+        <v>44120.67013888889</v>
+      </c>
+      <c r="H137" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="I137" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="J137" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="K137" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="L137" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="M137" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="N137" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="O137" s="3" t="n">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>2833</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIJARRA VICTOR DAVID ES </t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>44121</v>
+      </c>
+      <c r="F138" s="3" t="n">
+        <v>44121.32986111111</v>
+      </c>
+      <c r="G138" s="3" t="n">
+        <v>44121.66666666666</v>
+      </c>
+      <c r="H138" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="I138" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="J138" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="K138" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="L138" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="M138" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="N138" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="O138" s="3" t="n">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>2834</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PEREYRA NICOLAS ALEXIS ES </t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>44117</v>
+      </c>
+      <c r="F139" s="3" t="n">
+        <v>44117.3875</v>
+      </c>
+      <c r="G139" s="3" t="n">
+        <v>44117.67291666667</v>
+      </c>
+      <c r="H139" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="I139" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="J139" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="K139" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="L139" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="M139" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="N139" s="3" t="n">
+        <v>44117</v>
+      </c>
+      <c r="O139" s="3" t="n">
+        <v>44117</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>2835</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PEREYRA NICOLAS ALEXIS ES </t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>44118</v>
+      </c>
+      <c r="F140" s="3" t="n">
+        <v>44118.65416666667</v>
+      </c>
+      <c r="G140" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="H140" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="I140" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="J140" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="K140" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="L140" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="M140" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="N140" s="3" t="n">
+        <v>44118</v>
+      </c>
+      <c r="O140" s="3" t="n">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>2836</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PEREYRA NICOLAS ALEXIS ES </t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>44119</v>
+      </c>
+      <c r="F141" s="3" t="n">
+        <v>44119.00416666667</v>
+      </c>
+      <c r="G141" s="3" t="n">
+        <v>44119.65208333333</v>
+      </c>
+      <c r="H141" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="I141" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="J141" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="K141" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="L141" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="M141" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="N141" s="3" t="n">
+        <v>44119</v>
+      </c>
+      <c r="O141" s="3" t="n">
+        <v>44119</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>2837</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PEREYRA NICOLAS ALEXIS ES </t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>44120</v>
+      </c>
+      <c r="F142" s="3" t="n">
+        <v>44120.00138888889</v>
+      </c>
+      <c r="G142" s="3" t="n">
+        <v>44120.65138888889</v>
+      </c>
+      <c r="H142" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="I142" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="J142" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="K142" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="L142" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="M142" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="N142" s="3" t="n">
+        <v>44120</v>
+      </c>
+      <c r="O142" s="3" t="n">
+        <v>44120</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>2838</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PEREYRA NICOLAS ALEXIS ES </t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>44121</v>
+      </c>
+      <c r="F143" s="3" t="n">
+        <v>44121.00347222222</v>
+      </c>
+      <c r="G143" s="3" t="n">
+        <v>44121.31805555556</v>
+      </c>
+      <c r="H143" s="3" t="n">
+        <v>44121.66805555556</v>
+      </c>
+      <c r="I143" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="J143" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="K143" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="L143" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="M143" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="N143" s="3" t="n">
+        <v>44121</v>
+      </c>
+      <c r="O143" s="3" t="n">
+        <v>44121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
